--- a/documents/작업일정.xlsx
+++ b/documents/작업일정.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,14 @@
   </si>
   <si>
     <t>데이터수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터수집/필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전처리/은닉층설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -415,6 +423,17 @@
       <c r="A4" s="1">
         <v>44753</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44754</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
